--- a/Algorithms.xlsx
+++ b/Algorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C319B6CF-26DE-41AC-B58A-D3B70A77577A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A8456D-9B99-46A7-AEF8-6E49DC53554D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A52F3D36-0FE2-484D-9CD8-597CEC96CB7C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ALGORITHMS</t>
   </si>
@@ -90,6 +90,20 @@
     <t>Sort
 With known range of elements (ex: an aray of n size, 
 its elements can only contain 0 - 2)</t>
+  </si>
+  <si>
+    <t>KADANE'S ALGORITHM</t>
+  </si>
+  <si>
+    <t>Finding the largest sum in a subarray</t>
+  </si>
+  <si>
+    <t>var: arr[], max_so_far = INT_MIN, max_ending_here
+1. loop arr
+2. max_ending_here += arr[i]
+3. if max_so_far &lt; max_ending_here: max_so_far = max_ending
+4. if max_ending_here &lt; 0: max_ending_here = 0
+return max_so_far</t>
   </si>
 </sst>
 </file>
@@ -464,14 +478,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F017DA-A94A-4097-B63C-0CEA305EC585}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="26.36328125" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="31.08984375" customWidth="1"/>
     <col min="3" max="3" width="96.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -520,10 +534,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+    <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
